--- a/1.1)UTN_PROGRA1_LABO1_SPD/1-Programacion1/TP_PARCIAL5(2024)/EXCEL.xlsx
+++ b/1.1)UTN_PROGRA1_LABO1_SPD/1-Programacion1/TP_PARCIAL5(2024)/EXCEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguels\Desktop\Programacion\5-UTN\UTN - Programacion - LABO - SPD\1-UTN_PROGRA1_LABO1_SPD\1-Programacion1\TP_PARCIAL5(2024)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123ma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71667039-B346-4EC5-8EC8-0DEB3B7A0DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC22C1AF-0470-42CD-97CA-C3A13B569C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="4065" windowWidth="31905" windowHeight="24540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mi manera de verlo" sheetId="3" r:id="rId1"/>
@@ -24,12 +24,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>numero art</t>
   </si>
@@ -55,61 +66,7 @@
     <t>cantidad segunda quincena</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">cant art vent </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Acumulado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">costo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Acumulado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">precio venta </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Acumulado</t>
-    </r>
-  </si>
-  <si>
-    <t>Recaudacion</t>
-  </si>
-  <si>
     <t>el maximo de recaudacion es:</t>
-  </si>
-  <si>
-    <t>indice</t>
   </si>
   <si>
     <r>
@@ -136,9 +93,6 @@
       </rPr>
       <t xml:space="preserve"> pertenece:</t>
     </r>
-  </si>
-  <si>
-    <t>en una sola linea</t>
   </si>
   <si>
     <t>While!=0</t>
@@ -288,6 +242,9 @@
       <t>dia 16</t>
     </r>
   </si>
+  <si>
+    <t>sumar todo</t>
+  </si>
 </sst>
 </file>
 
@@ -324,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,14 +342,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -413,15 +364,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -491,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -511,18 +453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -535,6 +465,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,13 +477,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,50 +587,6 @@
         <a:xfrm>
           <a:off x="16908780" y="8332470"/>
           <a:ext cx="11042885" cy="3724816"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>372329</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>133475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C78A59D-D003-714A-B76D-1AD58A3199AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8258175" y="17145000"/>
-          <a:ext cx="6115904" cy="895475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1080,7 +966,7 @@
       <inkml:brushProperty name="color" value="#E71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8556 1 24575,'-2'1'0,"0"0"0,0 0 0,0 1 0,0-1 0,0 1 0,2-1 0,-2 1 0,1 1 0,-1-2 0,-1 4 0,-6 5 0,-115 102 0,8-2 0,96-92 0,-34 27 0,14-14 0,-144 131-670,51-44 670,-8 4-663,125-107 663,-236 193 0,57-48 0,60-47 0,48-45-657,-81 67-1161,-117 100 1818,271-224 0,-60 47 0,-61 49 0,45-35 0,2-3 0,-14 10 0,23-19 0,25-15 0,-350 298 0,268-237 0,70-58 0,-112 98 0,41-46-195,-58 50-148,154-115 366,-69 42 0,66-49 0,-66 57 0,54-37-45,-1-3-1,-1-4 1,-69 39 0,84-54 26,-69 61 0,72-55-24,-77 48-1,9-8-120,62-39 117,-60 46 24,54-38 0,-70 41 0,104-71 0,1 1 0,-24 23 0,-12 7 0,-117 96 0,36-27 0,30-16 0,14-12 0,-43 35 533,-21 19 40,101-93-647,-27 21 87,16-15 353,45-35-158,0 1 1,-36 21-1,34-24-208,-27 22 0,28-21 0,-35 22 0,-37 18 0,-14 8 0,-32 16 691,120-68-528,-2 0-1,-39 14 1,37-17 153,1 1 1,-28 16 0,24-11-215,-1-2 0,0 1 0,-40 8 0,39-12-110,-1 0 0,2 3 0,-30 15 0,33-15 8,0-1 0,0-1 0,0-1 0,-36 6 0,27-8 0,-57 24 0,35-1 0,38-20 0,0 1 0,-26 8 0,-10-1 0,23-8 0,0 1 0,-44 22 0,61-25 0,0-2 0,0-1 0,0 0 0,0-1 0,0 0 0,-1-1 0,0 1 0,0-2 0,-12-1 0,-5-1 0,0-3 0,-50-9 0,49 7 0,-32-1 0,-23-4 0,45 3 0,8-1 0,-61-3 0,91 11 0,-2 1 0,1-1 0,0 0 0,-1-1 0,1 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,-7-5 0,10 7 0,0-1 0,1 0 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-2 0,0 2 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,2 0 0,-1-1 0,2-1 0,5-2 0,-1-1 0,0 1 0,1 1 0,0 0 0,-1 0 0,2 1 0,11-4 0,34-17 0,-44 18 0,0 0 0,0 1 0,1 0 0,0 1 0,0 0 0,-1 1 0,2 0 0,-1 1 0,15-2 0,-26 4 0,1 2 0,-1-2 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,-16 16 0,2-6 0,-1 1 0,-27 13 0,-18 12 0,46-26 0,1-2 0,-30 12 0,-17 11 0,60-30 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,2 1 0,-1 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 2 0,0-1 0,-1 0 0,1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,0 2 0,1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,0 1 0,0-1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,5 2 0,8 6 0,0-1 0,26 25 0,-26-22 0,0 1 0,21 11 0,-18-13 0,-2 1 0,22 20 0,-8-7 0,31 14-1365,-48-31-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8894 1 24575,'-2'1'0,"0"0"0,0 0 0,0 1 0,0-1 0,-1 1 0,3-1 0,-2 1 0,1 0 0,-1-1 0,-1 4 0,-6 5 0,-120 97 0,8-2 0,101-87 0,-37 25 0,16-13 0,-150 125-670,52-42 670,-7 4-663,129-103 663,-245 185 0,59-45 0,63-46 0,50-43-657,-85 64-1161,-121 97 1818,281-216 0,-62 46 0,-63 46 0,46-33 0,3-3 0,-15 10 0,24-19 0,26-13 0,-364 284 0,278-226 0,74-56 0,-117 94 0,42-45-195,-59 49-148,159-110 366,-71 39 0,68-46 0,-68 55 0,55-36-45,0-3-1,-1-4 1,-72 38 0,87-52 26,-71 58 0,74-52-24,-80 45-1,10-7-120,64-37 117,-62 44 24,56-37 0,-73 39 0,109-67 0,0 1 0,-25 21 0,-12 7 0,-122 93 0,38-27 0,31-15 0,15-12 0,-46 34 533,-21 19 40,105-90-647,-28 20 87,16-14 353,48-34-158,-1 2 1,-37 19-1,35-22-208,-28 20 0,29-19 0,-36 20 0,-39 18 0,-14 7 0,-33 16 691,124-65-528,-2-1-1,-40 14 1,38-16 153,1 1 1,-29 15 0,25-11-215,-1-1 0,0 0 0,-41 8 0,40-11-110,-2-1 0,3 4 0,-31 14 0,34-15 8,0 0 0,1-1 0,-1-2 0,-38 7 0,29-8 0,-59 22 0,35 0 0,41-19 0,-1 0 0,-27 8 0,-10 0 0,24-9 0,0 2 0,-46 21 0,64-25 0,-1-1 0,1-1 0,-1 0 0,1-1 0,-1 0 0,0-2 0,-1 2 0,1-2 0,-13-1 0,-5-1 0,-1-2 0,-51-10 0,51 7 0,-33 0 0,-25-5 0,48 3 0,7 0 0,-62-4 0,93 11 0,-1 1 0,1-1 0,0 0 0,-1-1 0,1 2 0,0-1 0,0-1 0,0 1 0,0-1 0,-7-5 0,10 7 0,-1-1 0,2 0 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 2 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,3 0 0,-2-1 0,2-1 0,5-2 0,-1 0 0,1 0 0,0 1 0,0 0 0,0 0 0,1 1 0,12-3 0,35-17 0,-46 17 0,1 0 0,-1 1 0,1 1 0,1 0 0,-1 0 0,0 1 0,1 0 0,0 1 0,15-2 0,-27 4 0,1 2 0,-1-2 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-2 1 0,2-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,-16 15 0,1-5 0,-1 0 0,-27 13 0,-20 12 0,49-26 0,0-1 0,-31 11 0,-17 11 0,62-29 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,2 0 0,-2 1 0,0-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-2 0,0 3 0,0-1 0,-1 0 0,1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,0 2 0,1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,5 2 0,9 5 0,-1 0 0,28 23 0,-28-20 0,1 0 0,22 11 0,-20-12 0,-1 0 0,23 20 0,-9-7 0,32 13-1365,-49-29-5461</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1353,7 +1239,7 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1364,36 +1250,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B45:S209"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
@@ -1412,23 +1298,11 @@
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J47" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N47" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O47" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J47" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>1</v>
       </c>
@@ -1444,30 +1318,19 @@
       <c r="F48" s="2">
         <v>20</v>
       </c>
+      <c r="G48">
+        <f>(F48-E48)*D48</f>
+        <v>27</v>
+      </c>
       <c r="H48" s="4">
         <v>1</v>
       </c>
-      <c r="J48" s="13">
-        <f t="shared" ref="J48:J57" si="0">SUMIFS($D$48:$D$73,$B$48:$B$73,H48)</f>
-        <v>12</v>
-      </c>
-      <c r="K48" s="13">
-        <f t="shared" ref="K48:K57" si="1">SUMIFS($E$48:$E$73,$B$48:$B$73,H48)</f>
-        <v>66</v>
-      </c>
-      <c r="L48" s="13">
-        <f>SUMIFS($F$48:$F$73,$B$48:$B$73,H48)</f>
-        <v>90</v>
-      </c>
-      <c r="N48" s="13">
-        <f>(L48-K48)*J48</f>
-        <v>288</v>
-      </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J48" s="12">
+        <f>SUMIFS($G$48:$G$73,$B$48:$B$73,H48)</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>1</v>
       </c>
@@ -1483,37 +1346,26 @@
       <c r="F49" s="2">
         <v>30</v>
       </c>
+      <c r="G49">
+        <f t="shared" ref="G49:G73" si="0">(F49-E49)*D49</f>
+        <v>32</v>
+      </c>
       <c r="H49" s="4">
         <v>2</v>
       </c>
-      <c r="J49" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K49" s="13">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="L49" s="13">
-        <f t="shared" ref="L49:L57" si="2">SUMIFS($F$48:$F$73,$B$48:$B$73,H49)</f>
-        <v>85</v>
-      </c>
-      <c r="N49" s="13">
-        <f t="shared" ref="N49:N57" si="3">(L49-K49)*J49</f>
-        <v>24</v>
-      </c>
-      <c r="O49">
-        <v>2</v>
-      </c>
-      <c r="R49" s="17" t="s">
+      <c r="J49" s="12">
+        <f t="shared" ref="J49:J57" si="1">SUMIFS($G$48:$G$73,$B$48:$B$73,H49)</f>
         <v>12</v>
       </c>
-      <c r="S49" s="18">
+      <c r="R49" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="14">
         <f>MAX(N48:N57)</f>
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>1</v>
       </c>
@@ -1529,37 +1381,26 @@
       <c r="F50" s="2">
         <v>40</v>
       </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="H50" s="4">
         <v>3</v>
       </c>
-      <c r="J50" s="13">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="K50" s="13">
+      <c r="J50" s="12">
         <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="L50" s="13">
-        <f t="shared" si="2"/>
-        <v>193</v>
-      </c>
-      <c r="N50" s="13">
-        <f t="shared" si="3"/>
-        <v>2392</v>
-      </c>
-      <c r="O50">
-        <v>3</v>
-      </c>
-      <c r="R50" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="S50" s="18">
+        <v>371</v>
+      </c>
+      <c r="R50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S50" s="14" t="e">
         <f>VLOOKUP(S49,N48:O57,2,FALSE)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>3</v>
       </c>
@@ -1575,30 +1416,19 @@
       <c r="F51" s="5">
         <v>10</v>
       </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
       <c r="H51" s="4">
         <v>4</v>
       </c>
-      <c r="J51" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="13">
+      <c r="J51" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L51" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B52" s="5">
         <v>3</v>
       </c>
@@ -1614,30 +1444,19 @@
       <c r="F52" s="5">
         <v>20</v>
       </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
       <c r="H52" s="4">
         <v>5</v>
       </c>
-      <c r="J52" s="13">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="K52" s="13">
+      <c r="J52" s="12">
         <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="L52" s="13">
-        <f t="shared" si="2"/>
-        <v>177</v>
-      </c>
-      <c r="N52" s="13">
-        <f t="shared" si="3"/>
-        <v>1034</v>
-      </c>
-      <c r="O52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B53" s="5">
         <v>3</v>
       </c>
@@ -1653,358 +1472,305 @@
       <c r="F53" s="5">
         <v>40</v>
       </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="H53" s="4">
         <v>6</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="12">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
+        <v>3</v>
+      </c>
+      <c r="C54" s="5">
+        <v>3</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2</v>
+      </c>
+      <c r="E54" s="5">
+        <v>21</v>
+      </c>
+      <c r="F54" s="5">
+        <v>40</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H54" s="4">
+        <v>7</v>
+      </c>
+      <c r="J54" s="12">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <v>3</v>
+      </c>
+      <c r="C55" s="5">
+        <v>30</v>
+      </c>
+      <c r="D55" s="5">
+        <v>3</v>
+      </c>
+      <c r="E55" s="5">
+        <v>22</v>
+      </c>
+      <c r="F55" s="5">
+        <v>41</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H55" s="4">
+        <v>8</v>
+      </c>
+      <c r="J55" s="12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B56" s="5">
+        <v>3</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5">
+        <v>4</v>
+      </c>
+      <c r="E56" s="5">
+        <v>23</v>
+      </c>
+      <c r="F56" s="5">
+        <v>42</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="H56" s="4">
+        <v>9</v>
+      </c>
+      <c r="J56" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B57" s="6">
+        <v>5</v>
+      </c>
+      <c r="C57" s="6">
+        <v>10</v>
+      </c>
+      <c r="D57" s="6">
+        <v>5</v>
+      </c>
+      <c r="E57" s="6">
+        <v>24</v>
+      </c>
+      <c r="F57" s="6">
+        <v>43</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="H57" s="4">
+        <v>10</v>
+      </c>
+      <c r="J57" s="12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B58" s="6">
+        <v>5</v>
+      </c>
+      <c r="C58" s="6">
+        <v>16</v>
+      </c>
+      <c r="D58" s="6">
+        <v>4</v>
+      </c>
+      <c r="E58" s="6">
+        <v>25</v>
+      </c>
+      <c r="F58" s="6">
+        <v>44</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B59" s="6">
+        <v>5</v>
+      </c>
+      <c r="C59" s="6">
+        <v>2</v>
+      </c>
+      <c r="D59" s="6">
+        <v>10</v>
+      </c>
+      <c r="E59" s="6">
+        <v>26</v>
+      </c>
+      <c r="F59" s="6">
+        <v>29</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B60" s="6">
+        <v>5</v>
+      </c>
+      <c r="C60" s="6">
+        <v>16</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="6">
+        <v>27</v>
+      </c>
+      <c r="F60" s="6">
+        <v>30</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B61" s="6">
+        <v>5</v>
+      </c>
+      <c r="C61" s="6">
+        <v>16</v>
+      </c>
+      <c r="D61" s="6">
+        <v>2</v>
+      </c>
+      <c r="E61" s="6">
+        <v>28</v>
+      </c>
+      <c r="F61" s="6">
+        <v>31</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B62" s="7">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7">
+        <v>2</v>
+      </c>
+      <c r="D62" s="7">
+        <v>3</v>
+      </c>
+      <c r="E62" s="7">
+        <v>29</v>
+      </c>
+      <c r="F62" s="7">
+        <v>32</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B63" s="7">
+        <v>6</v>
+      </c>
+      <c r="C63" s="7">
+        <v>31</v>
+      </c>
+      <c r="D63" s="7">
+        <v>4</v>
+      </c>
+      <c r="E63" s="7">
+        <v>30</v>
+      </c>
+      <c r="F63" s="7">
+        <v>33</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B64" s="7">
+        <v>6</v>
+      </c>
+      <c r="C64" s="7">
+        <v>26</v>
+      </c>
+      <c r="D64" s="7">
+        <v>5</v>
+      </c>
+      <c r="E64" s="7">
+        <v>31</v>
+      </c>
+      <c r="F64" s="7">
+        <v>34</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="7">
+        <v>6</v>
+      </c>
+      <c r="C65" s="7">
+        <v>2</v>
+      </c>
+      <c r="D65" s="7">
+        <v>6</v>
+      </c>
+      <c r="E65" s="7">
+        <v>32</v>
+      </c>
+      <c r="F65" s="7">
+        <v>35</v>
+      </c>
+      <c r="G65">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="K53" s="13">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="L53" s="13">
-        <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-      <c r="N53" s="13">
-        <f t="shared" si="3"/>
-        <v>216</v>
-      </c>
-      <c r="O53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="5">
-        <v>3</v>
-      </c>
-      <c r="C54" s="5">
-        <v>3</v>
-      </c>
-      <c r="D54" s="5">
-        <v>2</v>
-      </c>
-      <c r="E54" s="5">
-        <v>21</v>
-      </c>
-      <c r="F54" s="5">
-        <v>40</v>
-      </c>
-      <c r="H54" s="4">
-        <v>7</v>
-      </c>
-      <c r="J54" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K54" s="13">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="L54" s="13">
-        <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-      <c r="N54" s="13">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="O54">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B55" s="5">
-        <v>3</v>
-      </c>
-      <c r="C55" s="5">
-        <v>30</v>
-      </c>
-      <c r="D55" s="5">
-        <v>3</v>
-      </c>
-      <c r="E55" s="5">
-        <v>22</v>
-      </c>
-      <c r="F55" s="5">
-        <v>41</v>
-      </c>
-      <c r="H55" s="4">
-        <v>8</v>
-      </c>
-      <c r="J55" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K55" s="13">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="L55" s="13">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="N55" s="13">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="O55">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B56" s="5">
-        <v>3</v>
-      </c>
-      <c r="C56" s="5">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5">
-        <v>4</v>
-      </c>
-      <c r="E56" s="5">
-        <v>23</v>
-      </c>
-      <c r="F56" s="5">
-        <v>42</v>
-      </c>
-      <c r="H56" s="4">
-        <v>9</v>
-      </c>
-      <c r="J56" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K56" s="13">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="L56" s="13">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="N56" s="13">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="O56">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B57" s="6">
-        <v>5</v>
-      </c>
-      <c r="C57" s="6">
-        <v>10</v>
-      </c>
-      <c r="D57" s="6">
-        <v>5</v>
-      </c>
-      <c r="E57" s="6">
-        <v>24</v>
-      </c>
-      <c r="F57" s="6">
-        <v>43</v>
-      </c>
-      <c r="H57" s="4">
-        <v>10</v>
-      </c>
-      <c r="J57" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K57" s="13">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="L57" s="13">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="N57" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="O57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B58" s="6">
-        <v>5</v>
-      </c>
-      <c r="C58" s="6">
-        <v>16</v>
-      </c>
-      <c r="D58" s="6">
-        <v>4</v>
-      </c>
-      <c r="E58" s="6">
-        <v>25</v>
-      </c>
-      <c r="F58" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="6">
-        <v>5</v>
-      </c>
-      <c r="C59" s="6">
-        <v>2</v>
-      </c>
-      <c r="D59" s="6">
-        <v>10</v>
-      </c>
-      <c r="E59" s="6">
-        <v>26</v>
-      </c>
-      <c r="F59" s="6">
-        <v>29</v>
-      </c>
-      <c r="N59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B60" s="6">
-        <v>5</v>
-      </c>
-      <c r="C60" s="6">
-        <v>16</v>
-      </c>
-      <c r="D60" s="6">
-        <v>1</v>
-      </c>
-      <c r="E60" s="6">
-        <v>27</v>
-      </c>
-      <c r="F60" s="6">
-        <v>30</v>
-      </c>
-      <c r="N60" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B61" s="6">
-        <v>5</v>
-      </c>
-      <c r="C61" s="6">
-        <v>16</v>
-      </c>
-      <c r="D61" s="6">
-        <v>2</v>
-      </c>
-      <c r="E61" s="6">
-        <v>28</v>
-      </c>
-      <c r="F61" s="6">
-        <v>31</v>
-      </c>
-      <c r="H61" t="s">
-        <v>6</v>
-      </c>
-      <c r="N61" s="13">
-        <f xml:space="preserve">  (    SUMIFS($F$48:$F$73,$B$48:$B$73,H48) - SUMIFS($E$48:$E$73,$B$48:$B$73,H48)   ) * (SUMIFS($D$48:$D$73,$B$48:$B$73,H48))</f>
-        <v>288</v>
-      </c>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B62" s="7">
-        <v>6</v>
-      </c>
-      <c r="C62" s="7">
-        <v>2</v>
-      </c>
-      <c r="D62" s="7">
-        <v>3</v>
-      </c>
-      <c r="E62" s="7">
-        <v>29</v>
-      </c>
-      <c r="F62" s="7">
-        <v>32</v>
-      </c>
-      <c r="H62" t="s">
-        <v>7</v>
-      </c>
-      <c r="N62" s="13">
-        <f t="shared" ref="N62:N70" si="4" xml:space="preserve">  (    SUMIFS($F$48:$F$73,$B$48:$B$73,H49) - SUMIFS($E$48:$E$73,$B$48:$B$73,H49)   ) * (SUMIFS($D$48:$D$73,$B$48:$B$73,H49))</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B63" s="7">
-        <v>6</v>
-      </c>
-      <c r="C63" s="7">
-        <v>31</v>
-      </c>
-      <c r="D63" s="7">
-        <v>4</v>
-      </c>
-      <c r="E63" s="7">
-        <v>30</v>
-      </c>
-      <c r="F63" s="7">
-        <v>33</v>
-      </c>
-      <c r="N63" s="13">
-        <f t="shared" si="4"/>
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B64" s="7">
-        <v>6</v>
-      </c>
-      <c r="C64" s="7">
-        <v>26</v>
-      </c>
-      <c r="D64" s="7">
-        <v>5</v>
-      </c>
-      <c r="E64" s="7">
-        <v>31</v>
-      </c>
-      <c r="F64" s="7">
-        <v>34</v>
-      </c>
-      <c r="I64">
-        <f>54+126+20+38+57+76</f>
-        <v>371</v>
-      </c>
-      <c r="N64" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="7">
-        <v>6</v>
-      </c>
-      <c r="C65" s="7">
-        <v>2</v>
-      </c>
-      <c r="D65" s="7">
-        <v>6</v>
-      </c>
-      <c r="E65" s="7">
-        <v>32</v>
-      </c>
-      <c r="F65" s="7">
-        <v>35</v>
-      </c>
-      <c r="N65" s="13">
-        <f t="shared" si="4"/>
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="8">
         <v>7</v>
       </c>
@@ -2020,12 +1786,12 @@
       <c r="F66" s="8">
         <v>36</v>
       </c>
-      <c r="N66" s="13">
-        <f t="shared" si="4"/>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="8">
         <v>7</v>
       </c>
@@ -2041,12 +1807,12 @@
       <c r="F67" s="8">
         <v>37</v>
       </c>
-      <c r="N67" s="13">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="8">
         <v>7</v>
       </c>
@@ -2062,12 +1828,12 @@
       <c r="F68" s="8">
         <v>38</v>
       </c>
-      <c r="N68" s="13">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>8</v>
       </c>
@@ -2083,12 +1849,12 @@
       <c r="F69" s="1">
         <v>39</v>
       </c>
-      <c r="N69" s="13">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="9">
         <v>9</v>
       </c>
@@ -2104,12 +1870,12 @@
       <c r="F70" s="9">
         <v>40</v>
       </c>
-      <c r="N70" s="13">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="10">
         <v>10</v>
       </c>
@@ -2125,8 +1891,12 @@
       <c r="F71" s="10">
         <v>41</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="11">
         <v>2</v>
       </c>
@@ -2142,8 +1912,12 @@
       <c r="F72" s="11">
         <v>42</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="11">
         <v>2</v>
       </c>
@@ -2159,1028 +1933,787 @@
       <c r="F73" s="11">
         <v>43</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J75" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K75" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="L75" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N75" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O75" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <f>SUMIFS($D$48:$D$73,$B$48:$B$73,I76)</f>
-        <v>12</v>
-      </c>
-      <c r="K76">
-        <f>SUMIFS($E$48:$E$73,$B$48:$B$73,I76)</f>
-        <v>66</v>
-      </c>
-      <c r="L76">
-        <f>SUMIFS($F$48:$F$73,$B$48:$B$73,I76)</f>
-        <v>90</v>
-      </c>
-      <c r="N76">
-        <f>(L76-K76)*J76</f>
-        <v>288</v>
-      </c>
-      <c r="O76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I77">
-        <v>2</v>
-      </c>
-      <c r="J77">
-        <f t="shared" ref="J77:J85" si="5">SUMIFS($D$48:$D$73,$B$48:$B$73,I77)</f>
-        <v>4</v>
-      </c>
-      <c r="K77">
-        <f t="shared" ref="K77:K85" si="6">SUMIFS($E$48:$E$73,$B$48:$B$73,I77)</f>
-        <v>79</v>
-      </c>
-      <c r="L77">
-        <f t="shared" ref="L77:L85" si="7">SUMIFS($F$48:$F$73,$B$48:$B$73,I77)</f>
-        <v>85</v>
-      </c>
-      <c r="N77">
-        <f t="shared" ref="N77:N85" si="8">(L77-K77)*J77</f>
-        <v>24</v>
-      </c>
-      <c r="O77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I78">
-        <v>3</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="7"/>
-        <v>193</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="8"/>
-        <v>2392</v>
-      </c>
-      <c r="O78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I79">
-        <v>4</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="19">
+      <c r="G73">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="15">
         <f>B48</f>
         <v>1</v>
       </c>
-      <c r="I80">
-        <v>5</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="6"/>
-        <v>130</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="7"/>
-        <v>177</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="8"/>
-        <v>1034</v>
-      </c>
-      <c r="O80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B81" s="19">
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="15">
         <f>C48</f>
         <v>2</v>
       </c>
-      <c r="I81">
-        <v>6</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="6"/>
-        <v>122</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="7"/>
-        <v>134</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="8"/>
-        <v>216</v>
-      </c>
-      <c r="O81">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B82" s="19">
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="15">
         <f>D48</f>
         <v>3</v>
       </c>
-      <c r="I82">
-        <v>7</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="6"/>
-        <v>102</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="7"/>
-        <v>111</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="O82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B83" s="19">
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="15">
         <f>E48</f>
         <v>11</v>
       </c>
-      <c r="I83">
-        <v>8</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="O83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B84" s="19">
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="15">
         <f>F48</f>
         <v>20</v>
       </c>
-      <c r="I84">
-        <v>9</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="O84">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B85" s="19">
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="15">
         <f>B49</f>
         <v>1</v>
       </c>
-      <c r="I85">
-        <v>10</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="O85">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B86" s="19">
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="15">
         <f>C49</f>
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B87" s="19">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="15">
         <f>D49</f>
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B88" s="19">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="15">
         <f>E49</f>
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B89" s="19">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="15">
         <f>F49</f>
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B90" s="19">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="15">
         <f>B50</f>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B91" s="19">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="15">
         <f>C50</f>
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B92" s="19">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="15">
         <f>D50</f>
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B93" s="19">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="15">
         <f>E50</f>
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B94" s="19">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="15">
         <f>F50</f>
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B95" s="19">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="15">
         <f>B51</f>
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B96" s="19">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="15">
         <f>C51</f>
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="19">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="15">
         <f>D51</f>
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="19">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="15">
         <f>E51</f>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="19">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="15">
         <f>F51</f>
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="19">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="15">
         <f>B52</f>
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="19">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="15">
         <f>C52</f>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="19">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="15">
         <f>D52</f>
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="19">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="15">
         <f>E52</f>
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="19">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="15">
         <f>F52</f>
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="19">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="15">
         <f>B53</f>
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="19">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="15">
         <f>C53</f>
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="19">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="15">
         <f>D53</f>
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="19">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="15">
         <f>E53</f>
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="19">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="15">
         <f>F53</f>
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="19">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="15">
         <f>B54</f>
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="19">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="15">
         <f>C54</f>
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="19">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="15">
         <f>D54</f>
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="19">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="15">
         <f>E54</f>
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="19">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="15">
         <f>F54</f>
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="19">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="15">
         <f>B55</f>
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="19">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="15">
         <f>C55</f>
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="19">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="15">
         <f>D55</f>
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="19">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="15">
         <f>E55</f>
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="19">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="15">
         <f>F55</f>
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="19">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="15">
         <f>B56</f>
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="19">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="15">
         <f>C56</f>
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="19">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="15">
         <f>D56</f>
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="19">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="15">
         <f>E56</f>
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="19">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="15">
         <f>F56</f>
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="19">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="15">
         <f>B57</f>
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="19">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="15">
         <f>C57</f>
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="19">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="15">
         <f>D57</f>
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="19">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="15">
         <f>E57</f>
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="19">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="15">
         <f>F57</f>
         <v>43</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="19">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="15">
         <f>B58</f>
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="19">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="15">
         <f>C58</f>
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="19">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="15">
         <f>D58</f>
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="19">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="15">
         <f>E58</f>
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="19">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="15">
         <f>F58</f>
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="19">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="15">
         <f>B59</f>
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="19">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="15">
         <f>C59</f>
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="19">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="15">
         <f>D59</f>
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="19">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="15">
         <f>E59</f>
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="19">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="15">
         <f>F59</f>
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="19">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="15">
         <f>B60</f>
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="19">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="15">
         <f>C60</f>
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="19">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="15">
         <f>D60</f>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="19">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="15">
         <f>E60</f>
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="19">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="15">
         <f>F60</f>
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="19">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="15">
         <f>B61</f>
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="19">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="15">
         <f>C61</f>
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="19">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="15">
         <f>D61</f>
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="19">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="15">
         <f>E61</f>
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="19">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="15">
         <f>F61</f>
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="19">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="15">
         <f>B62</f>
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="19">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="15">
         <f>C62</f>
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="19">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="15">
         <f>D62</f>
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="19">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="15">
         <f>E62</f>
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="19">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="15">
         <f>F62</f>
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="19">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="15">
         <f>B63</f>
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="19">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="15">
         <f>C63</f>
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="19">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="15">
         <f>D63</f>
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="19">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="15">
         <f>E63</f>
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="19">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="15">
         <f>F63</f>
         <v>33</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="19">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="15">
         <f>B64</f>
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="19">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="15">
         <f>C64</f>
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="19">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="15">
         <f>D64</f>
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="19">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="15">
         <f>E64</f>
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="19">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="15">
         <f>F64</f>
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="19">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="15">
         <f>B65</f>
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="19">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="15">
         <f>C65</f>
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="19">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="15">
         <f>D65</f>
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="19">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="15">
         <f>E65</f>
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="19">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="15">
         <f>F65</f>
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="19">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="15">
         <f>B66</f>
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="19">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="15">
         <f>C66</f>
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="19">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="15">
         <f>D66</f>
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="19">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="15">
         <f>E66</f>
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="19">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="15">
         <f>F66</f>
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="19">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="15">
         <f>B67</f>
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="19">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="15">
         <f>C67</f>
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="19">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="15">
         <f>D67</f>
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="19">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="15">
         <f>E67</f>
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="19">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="15">
         <f>F67</f>
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="19">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="15">
         <f>B68</f>
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="19">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="15">
         <f>C68</f>
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="19">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="15">
         <f>D68</f>
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="19">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="15">
         <f>E68</f>
         <v>35</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="19">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="15">
         <f>F68</f>
         <v>38</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="19">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="15">
         <f>B69</f>
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="19">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="15">
         <f>C69</f>
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="19">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="15">
         <f>D69</f>
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="19">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="15">
         <f>E69</f>
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="19">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="15">
         <f>F69</f>
         <v>39</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="19">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="15">
         <f>B70</f>
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="19">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="15">
         <f>C70</f>
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="19">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="15">
         <f>D70</f>
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="19">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="15">
         <f>E70</f>
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="19">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="15">
         <f>F70</f>
         <v>40</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="19">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="15">
         <f>B71</f>
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="19">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="15">
         <f>C71</f>
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="19">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="15">
         <f>D71</f>
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="19">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="15">
         <f>E71</f>
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="19">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="15">
         <f>F71</f>
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="19">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="15">
         <f>B72</f>
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="19">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="15">
         <f>C72</f>
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="19">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="15">
         <f>D72</f>
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="19">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="15">
         <f>E72</f>
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="19">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="15">
         <f>F72</f>
         <v>42</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="19">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="15">
         <f>B73</f>
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="19">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="15">
         <f>C73</f>
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="19">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="15">
         <f>D73</f>
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="19">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="15">
         <f>E73</f>
         <v>40</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="19">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="15">
         <f>F73</f>
         <v>43</v>
       </c>
@@ -3200,23 +2733,23 @@
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3233,13 +2766,13 @@
         <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>1</v>
       </c>
@@ -3264,7 +2797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>1</v>
       </c>
@@ -3281,7 +2814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>1</v>
       </c>
@@ -3298,7 +2831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>3</v>
       </c>
@@ -3315,7 +2848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>3</v>
       </c>
@@ -3332,7 +2865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>3</v>
       </c>
@@ -3349,7 +2882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>3</v>
       </c>
@@ -3366,7 +2899,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>3</v>
       </c>
@@ -3383,7 +2916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>3</v>
       </c>
@@ -3400,7 +2933,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="6">
         <v>5</v>
       </c>
@@ -3417,7 +2950,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="6">
         <v>5</v>
       </c>
@@ -3434,7 +2967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
         <v>5</v>
       </c>
@@ -3451,7 +2984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
         <v>5</v>
       </c>
@@ -3468,7 +3001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="6">
         <v>5</v>
       </c>
@@ -3485,7 +3018,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="7">
         <v>6</v>
       </c>
@@ -3502,7 +3035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="7">
         <v>6</v>
       </c>
@@ -3519,7 +3052,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="7">
         <v>6</v>
       </c>
@@ -3536,7 +3069,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="7">
         <v>6</v>
       </c>
@@ -3553,7 +3086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="8">
         <v>7</v>
       </c>
@@ -3570,7 +3103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="8">
         <v>7</v>
       </c>
@@ -3587,7 +3120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="8">
         <v>7</v>
       </c>
@@ -3604,7 +3137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>8</v>
       </c>
@@ -3621,7 +3154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="9">
         <v>9</v>
       </c>
@@ -3638,7 +3171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="10">
         <v>10</v>
       </c>
@@ -3655,7 +3188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="11">
         <v>2</v>
       </c>
@@ -3672,7 +3205,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="11">
         <v>2</v>
       </c>
@@ -3689,782 +3222,782 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="19">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="15">
         <f>B30</f>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="19">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="15">
         <f>C30</f>
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="19">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="15">
         <f>D30</f>
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="19">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="15">
         <f>E30</f>
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="19">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="15">
         <f>F30</f>
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="19">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="15">
         <f>B31</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="19">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="15">
         <f>C31</f>
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="19">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="15">
         <f>D31</f>
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="19">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="15">
         <f>E31</f>
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="19">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="15">
         <f>F31</f>
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="19">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="15">
         <f>B32</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="19">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="15">
         <f>C32</f>
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="19">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="15">
         <f>D32</f>
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="19">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="15">
         <f>E32</f>
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="19">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="15">
         <f>F32</f>
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="19">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="15">
         <f>B33</f>
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="19">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="15">
         <f>C33</f>
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="19">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="15">
         <f>D33</f>
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="19">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="15">
         <f>E33</f>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="19">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="15">
         <f>F33</f>
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="19">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="15">
         <f>B34</f>
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="19">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="15">
         <f>C34</f>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="19">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="15">
         <f>D34</f>
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="19">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="15">
         <f>E34</f>
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="19">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="15">
         <f>F34</f>
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="19">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="15">
         <f>B35</f>
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="19">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="15">
         <f>C35</f>
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="19">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="15">
         <f>D35</f>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="19">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="15">
         <f>E35</f>
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="19">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="15">
         <f>F35</f>
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="19">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="15">
         <f>B36</f>
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="19">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="15">
         <f>C36</f>
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="19">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="15">
         <f>D36</f>
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="19">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="15">
         <f>E36</f>
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="19">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="15">
         <f>F36</f>
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="19">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="15">
         <f>B37</f>
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="19">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="15">
         <f>C37</f>
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="19">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="15">
         <f>D37</f>
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="19">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="15">
         <f>E37</f>
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="19">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="15">
         <f>F37</f>
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="19">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="15">
         <f>B38</f>
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="19">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="15">
         <f>C38</f>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="19">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="15">
         <f>D38</f>
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="19">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="15">
         <f>E38</f>
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="19">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="15">
         <f>F38</f>
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="19">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="15">
         <f>B39</f>
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="19">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="15">
         <f>C39</f>
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="19">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="15">
         <f>D39</f>
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="19">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="15">
         <f>E39</f>
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="19">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="15">
         <f>F39</f>
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="19">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="15">
         <f>B40</f>
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="19">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="15">
         <f>C40</f>
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="19">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="15">
         <f>D40</f>
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="19">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="15">
         <f>E40</f>
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="19">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="15">
         <f>F40</f>
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="19">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="15">
         <f>B41</f>
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="19">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="15">
         <f>C41</f>
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="19">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="15">
         <f>D41</f>
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="19">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="15">
         <f>E41</f>
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="19">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="15">
         <f>F41</f>
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="19">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="15">
         <f>B42</f>
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="19">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="15">
         <f>C42</f>
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="19">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="15">
         <f>D42</f>
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="19">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="15">
         <f>E42</f>
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="19">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="15">
         <f>F42</f>
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="19">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="15">
         <f>B43</f>
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="19">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="15">
         <f>C43</f>
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="19">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="15">
         <f>D43</f>
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="19">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="15">
         <f>E43</f>
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="19">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="15">
         <f>F43</f>
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="19">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="15">
         <f>B44</f>
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="19">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="15">
         <f>C44</f>
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="19">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="15">
         <f>D44</f>
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="19">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="15">
         <f>E44</f>
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="19">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="15">
         <f>F44</f>
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="19">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="15">
         <f>B45</f>
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="19">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="15">
         <f>C45</f>
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="19">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="15">
         <f>D45</f>
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="19">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="15">
         <f>E45</f>
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="19">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="15">
         <f>F45</f>
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="19">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="15">
         <f>B46</f>
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="19">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="15">
         <f>C46</f>
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="19">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="15">
         <f>D46</f>
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="19">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="15">
         <f>E46</f>
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="19">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="15">
         <f>F46</f>
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="19">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="15">
         <f>B47</f>
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="19">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="15">
         <f>C47</f>
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="19">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="15">
         <f>D47</f>
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="19">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="15">
         <f>E47</f>
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="19">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="15">
         <f>F47</f>
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="19">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="15">
         <f>B48</f>
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="19">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="15">
         <f>C48</f>
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="19">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="15">
         <f>D48</f>
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="19">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="15">
         <f>E48</f>
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="19">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="15">
         <f>F48</f>
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="19">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="15">
         <f>B49</f>
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="19">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="15">
         <f>C49</f>
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="19">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="15">
         <f>D49</f>
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="19">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="15">
         <f>E49</f>
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="19">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="15">
         <f>F49</f>
         <v>37</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="19">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="15">
         <f>B50</f>
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="19">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="15">
         <f>C50</f>
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="19">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="15">
         <f>D50</f>
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="19">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="15">
         <f>E50</f>
         <v>35</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="19">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="15">
         <f>F50</f>
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="19">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="15">
         <f>B51</f>
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="19">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="15">
         <f>C51</f>
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="19">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="15">
         <f>D51</f>
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="19">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="15">
         <f>E51</f>
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="19">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="15">
         <f>F51</f>
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="19">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="15">
         <f>B52</f>
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="19">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="15">
         <f>C52</f>
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="19">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="15">
         <f>D52</f>
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="19">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="15">
         <f>E52</f>
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="19">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="15">
         <f>F52</f>
         <v>40</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="19">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="15">
         <f>B53</f>
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="19">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="15">
         <f>C53</f>
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="19">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="15">
         <f>D53</f>
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="19">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="15">
         <f>E53</f>
         <v>38</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="19">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="15">
         <f>F53</f>
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="19">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="15">
         <f>B54</f>
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="19">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="15">
         <f>C54</f>
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="19">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="15">
         <f>D54</f>
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="19">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="15">
         <f>E54</f>
         <v>39</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="19">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="15">
         <f>F54</f>
         <v>42</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="19">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="15">
         <f>B55</f>
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="19">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="15">
         <f>C55</f>
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="19">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="15">
         <f>D55</f>
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="19">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="15">
         <f>E55</f>
         <v>40</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="19">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="15">
         <f>F55</f>
         <v>43</v>
       </c>
@@ -4483,34 +4016,34 @@
       <selection activeCell="V70" sqref="V70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="56" spans="5:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="5:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="5:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" t="s">
-        <v>16</v>
-      </c>
-      <c r="R57" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="S57" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="5:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="R57" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="S57" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="5:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E58" t="s">
-        <v>17</v>
-      </c>
-      <c r="R58" s="25"/>
-      <c r="S58" s="26"/>
-    </row>
-    <row r="59" spans="5:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="R58" s="21"/>
+      <c r="S58" s="22"/>
+    </row>
+    <row r="59" spans="5:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E59" s="1" t="s">
         <v>0</v>
       </c>
@@ -4530,23 +4063,23 @@
         <v>1</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R59" s="21">
+        <v>16</v>
+      </c>
+      <c r="R59" s="17">
         <f>P60</f>
         <v>93</v>
       </c>
-      <c r="S59" s="22">
+      <c r="S59" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="5:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E60" s="2">
         <v>1</v>
       </c>
@@ -4562,30 +4095,30 @@
       <c r="I60" s="2">
         <v>20</v>
       </c>
-      <c r="L60" s="20">
-        <v>1</v>
-      </c>
-      <c r="M60" s="20">
+      <c r="L60" s="16">
+        <v>1</v>
+      </c>
+      <c r="M60" s="16">
         <f>SUMIFS($G$60:$G$85,$F$60:$F$85,L60)</f>
         <v>14</v>
       </c>
-      <c r="O60" s="20">
+      <c r="O60" s="16">
         <f>SUM(M60:M66)</f>
         <v>48</v>
       </c>
-      <c r="P60" s="20">
+      <c r="P60" s="16">
         <f>SUM(M60:M90)</f>
         <v>93</v>
       </c>
-      <c r="R60" s="23">
+      <c r="R60" s="19">
         <f>O60</f>
         <v>48</v>
       </c>
-      <c r="S60" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="S60" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E61" s="2">
         <v>1</v>
       </c>
@@ -4601,10 +4134,10 @@
       <c r="I61" s="2">
         <v>30</v>
       </c>
-      <c r="L61" s="20">
-        <v>2</v>
-      </c>
-      <c r="M61" s="20">
+      <c r="L61" s="16">
+        <v>2</v>
+      </c>
+      <c r="M61" s="16">
         <f t="shared" ref="M61:M90" si="0">SUMIFS($G$60:$G$85,$F$60:$F$85,L61)</f>
         <v>22</v>
       </c>
@@ -4613,7 +4146,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E62" s="2">
         <v>1</v>
       </c>
@@ -4629,15 +4162,15 @@
       <c r="I62" s="2">
         <v>40</v>
       </c>
-      <c r="L62" s="20">
-        <v>3</v>
-      </c>
-      <c r="M62" s="20">
+      <c r="L62" s="16">
+        <v>3</v>
+      </c>
+      <c r="M62" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E63" s="5">
         <v>3</v>
       </c>
@@ -4653,15 +4186,15 @@
       <c r="I63" s="5">
         <v>10</v>
       </c>
-      <c r="L63" s="20">
+      <c r="L63" s="16">
         <v>4</v>
       </c>
-      <c r="M63" s="20">
+      <c r="M63" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:19" x14ac:dyDescent="0.3">
       <c r="E64" s="5">
         <v>3</v>
       </c>
@@ -4677,22 +4210,22 @@
       <c r="I64" s="5">
         <v>20</v>
       </c>
-      <c r="L64" s="20">
+      <c r="L64" s="16">
         <v>5</v>
       </c>
-      <c r="M64" s="20">
+      <c r="M64" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R64" s="17" t="s">
-        <v>26</v>
+      <c r="R64" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="S64">
         <f>(R60*S59)/R59</f>
         <v>51.612903225806448</v>
       </c>
     </row>
-    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E65" s="5">
         <v>3</v>
       </c>
@@ -4708,15 +4241,15 @@
       <c r="I65" s="5">
         <v>40</v>
       </c>
-      <c r="L65" s="20">
+      <c r="L65" s="16">
         <v>6</v>
       </c>
-      <c r="M65" s="20">
+      <c r="M65" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E66" s="5">
         <v>3</v>
       </c>
@@ -4732,15 +4265,15 @@
       <c r="I66" s="5">
         <v>40</v>
       </c>
-      <c r="L66" s="20">
+      <c r="L66" s="16">
         <v>7</v>
       </c>
-      <c r="M66" s="20">
+      <c r="M66" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E67" s="5">
         <v>3</v>
       </c>
@@ -4756,15 +4289,15 @@
       <c r="I67" s="5">
         <v>41</v>
       </c>
-      <c r="L67" s="20">
+      <c r="L67" s="16">
         <v>8</v>
       </c>
-      <c r="M67" s="20">
+      <c r="M67" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E68" s="5">
         <v>3</v>
       </c>
@@ -4780,15 +4313,15 @@
       <c r="I68" s="5">
         <v>42</v>
       </c>
-      <c r="L68" s="20">
+      <c r="L68" s="16">
         <v>9</v>
       </c>
-      <c r="M68" s="20">
+      <c r="M68" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E69" s="6">
         <v>5</v>
       </c>
@@ -4804,15 +4337,15 @@
       <c r="I69" s="6">
         <v>43</v>
       </c>
-      <c r="L69" s="20">
+      <c r="L69" s="16">
         <v>10</v>
       </c>
-      <c r="M69" s="20">
+      <c r="M69" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E70" s="6">
         <v>5</v>
       </c>
@@ -4828,15 +4361,15 @@
       <c r="I70" s="6">
         <v>44</v>
       </c>
-      <c r="L70" s="20">
+      <c r="L70" s="16">
         <v>11</v>
       </c>
-      <c r="M70" s="20">
+      <c r="M70" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E71" s="6">
         <v>5</v>
       </c>
@@ -4852,15 +4385,15 @@
       <c r="I71" s="6">
         <v>29</v>
       </c>
-      <c r="L71" s="20">
+      <c r="L71" s="16">
         <v>12</v>
       </c>
-      <c r="M71" s="20">
+      <c r="M71" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E72" s="6">
         <v>5</v>
       </c>
@@ -4876,15 +4409,15 @@
       <c r="I72" s="6">
         <v>30</v>
       </c>
-      <c r="L72" s="20">
+      <c r="L72" s="16">
         <v>13</v>
       </c>
-      <c r="M72" s="20">
+      <c r="M72" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E73" s="6">
         <v>5</v>
       </c>
@@ -4900,15 +4433,15 @@
       <c r="I73" s="6">
         <v>31</v>
       </c>
-      <c r="L73" s="20">
+      <c r="L73" s="16">
         <v>14</v>
       </c>
-      <c r="M73" s="20">
+      <c r="M73" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E74" s="7">
         <v>6</v>
       </c>
@@ -4924,15 +4457,15 @@
       <c r="I74" s="7">
         <v>32</v>
       </c>
-      <c r="L74" s="20">
+      <c r="L74" s="16">
         <v>15</v>
       </c>
-      <c r="M74" s="20">
+      <c r="M74" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E75" s="7">
         <v>6</v>
       </c>
@@ -4948,15 +4481,15 @@
       <c r="I75" s="7">
         <v>33</v>
       </c>
-      <c r="L75" s="20">
+      <c r="L75" s="16">
         <v>16</v>
       </c>
-      <c r="M75" s="20">
+      <c r="M75" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E76" s="7">
         <v>6</v>
       </c>
@@ -4972,15 +4505,15 @@
       <c r="I76" s="7">
         <v>34</v>
       </c>
-      <c r="L76" s="20">
+      <c r="L76" s="16">
         <v>17</v>
       </c>
-      <c r="M76" s="20">
+      <c r="M76" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E77" s="7">
         <v>6</v>
       </c>
@@ -4996,15 +4529,15 @@
       <c r="I77" s="7">
         <v>35</v>
       </c>
-      <c r="L77" s="20">
+      <c r="L77" s="16">
         <v>18</v>
       </c>
-      <c r="M77" s="20">
+      <c r="M77" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E78" s="8">
         <v>7</v>
       </c>
@@ -5020,15 +4553,15 @@
       <c r="I78" s="8">
         <v>36</v>
       </c>
-      <c r="L78" s="20">
+      <c r="L78" s="16">
         <v>19</v>
       </c>
-      <c r="M78" s="20">
+      <c r="M78" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E79" s="8">
         <v>7</v>
       </c>
@@ -5044,15 +4577,15 @@
       <c r="I79" s="8">
         <v>37</v>
       </c>
-      <c r="L79" s="20">
+      <c r="L79" s="16">
         <v>20</v>
       </c>
-      <c r="M79" s="20">
+      <c r="M79" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E80" s="8">
         <v>7</v>
       </c>
@@ -5068,15 +4601,15 @@
       <c r="I80" s="8">
         <v>38</v>
       </c>
-      <c r="L80" s="20">
+      <c r="L80" s="16">
         <v>21</v>
       </c>
-      <c r="M80" s="20">
+      <c r="M80" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E81" s="1">
         <v>8</v>
       </c>
@@ -5092,15 +4625,15 @@
       <c r="I81" s="1">
         <v>39</v>
       </c>
-      <c r="L81" s="20">
+      <c r="L81" s="16">
         <v>22</v>
       </c>
-      <c r="M81" s="20">
+      <c r="M81" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E82" s="9">
         <v>9</v>
       </c>
@@ -5116,15 +4649,15 @@
       <c r="I82" s="9">
         <v>40</v>
       </c>
-      <c r="L82" s="20">
+      <c r="L82" s="16">
         <v>23</v>
       </c>
-      <c r="M82" s="20">
+      <c r="M82" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E83" s="10">
         <v>10</v>
       </c>
@@ -5140,15 +4673,15 @@
       <c r="I83" s="10">
         <v>41</v>
       </c>
-      <c r="L83" s="20">
+      <c r="L83" s="16">
         <v>24</v>
       </c>
-      <c r="M83" s="20">
+      <c r="M83" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E84" s="11">
         <v>2</v>
       </c>
@@ -5164,15 +4697,15 @@
       <c r="I84" s="11">
         <v>42</v>
       </c>
-      <c r="L84" s="20">
+      <c r="L84" s="16">
         <v>25</v>
       </c>
-      <c r="M84" s="20">
+      <c r="M84" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E85" s="11">
         <v>2</v>
       </c>
@@ -5188,835 +4721,835 @@
       <c r="I85" s="11">
         <v>43</v>
       </c>
-      <c r="L85" s="20">
+      <c r="L85" s="16">
         <v>26</v>
       </c>
-      <c r="M85" s="20">
+      <c r="M85" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="L86" s="20">
+    <row r="86" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="L86" s="16">
         <v>27</v>
       </c>
-      <c r="M86" s="20">
+      <c r="M86" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="L87" s="20">
+    <row r="87" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="L87" s="16">
         <v>28</v>
       </c>
-      <c r="M87" s="20">
+      <c r="M87" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="L88" s="20">
+    <row r="88" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="L88" s="16">
         <v>29</v>
       </c>
-      <c r="M88" s="20">
+      <c r="M88" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="L89" s="20">
+    <row r="89" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="L89" s="16">
         <v>30</v>
       </c>
-      <c r="M89" s="20">
+      <c r="M89" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="L90" s="20">
+    <row r="90" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="L90" s="16">
         <v>31</v>
       </c>
-      <c r="M90" s="20">
+      <c r="M90" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E92" s="19">
+    <row r="92" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E92" s="15">
         <f>E60</f>
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E93" s="19">
+    <row r="93" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E93" s="15">
         <f>F60</f>
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E94" s="19">
+    <row r="94" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E94" s="15">
         <f>G60</f>
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E95" s="19">
+    <row r="95" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E95" s="15">
         <f>H60</f>
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E96" s="19">
+    <row r="96" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E96" s="15">
         <f>I60</f>
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="19">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E97" s="15">
         <f>E61</f>
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="19">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E98" s="15">
         <f>F61</f>
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="19">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E99" s="15">
         <f>G61</f>
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="19">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E100" s="15">
         <f>H61</f>
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="19">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E101" s="15">
         <f>I61</f>
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="19">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E102" s="15">
         <f>E62</f>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E103" s="19">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E103" s="15">
         <f>F62</f>
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="19">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E104" s="15">
         <f>G62</f>
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="19">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E105" s="15">
         <f>H62</f>
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="19">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E106" s="15">
         <f>I62</f>
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="19">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E107" s="15">
         <f>E63</f>
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E108" s="19">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E108" s="15">
         <f>F63</f>
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="19">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E109" s="15">
         <f>G63</f>
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="19">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E110" s="15">
         <f>H63</f>
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="19">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E111" s="15">
         <f>I63</f>
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="19">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E112" s="15">
         <f>E64</f>
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="19">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E113" s="15">
         <f>F64</f>
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="19">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E114" s="15">
         <f>G64</f>
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="19">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E115" s="15">
         <f>H64</f>
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="19">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E116" s="15">
         <f>I64</f>
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="19">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E117" s="15">
         <f>E65</f>
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118" s="19">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E118" s="15">
         <f>F65</f>
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119" s="19">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E119" s="15">
         <f>G65</f>
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="19">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E120" s="15">
         <f>H65</f>
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121" s="19">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E121" s="15">
         <f>I65</f>
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E122" s="19">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E122" s="15">
         <f>E66</f>
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E123" s="19">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E123" s="15">
         <f>F66</f>
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E124" s="19">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E124" s="15">
         <f>G66</f>
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E125" s="19">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E125" s="15">
         <f>H66</f>
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E126" s="19">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E126" s="15">
         <f>I66</f>
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E127" s="19">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E127" s="15">
         <f>E67</f>
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E128" s="19">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E128" s="15">
         <f>F67</f>
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E129" s="19">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E129" s="15">
         <f>G67</f>
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="19">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E130" s="15">
         <f>H67</f>
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E131" s="19">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E131" s="15">
         <f>I67</f>
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E132" s="19">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E132" s="15">
         <f>E68</f>
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E133" s="19">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E133" s="15">
         <f>F68</f>
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E134" s="19">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E134" s="15">
         <f>G68</f>
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E135" s="19">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E135" s="15">
         <f>H68</f>
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E136" s="19">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E136" s="15">
         <f>I68</f>
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E137" s="19">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E137" s="15">
         <f>E69</f>
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E138" s="19">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E138" s="15">
         <f>F69</f>
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E139" s="19">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E139" s="15">
         <f>G69</f>
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E140" s="19">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E140" s="15">
         <f>H69</f>
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E141" s="19">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E141" s="15">
         <f>I69</f>
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E142" s="19">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E142" s="15">
         <f>E70</f>
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E143" s="19">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E143" s="15">
         <f>F70</f>
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E144" s="19">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E144" s="15">
         <f>G70</f>
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145" s="19">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E145" s="15">
         <f>H70</f>
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146" s="19">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E146" s="15">
         <f>I70</f>
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E147" s="19">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E147" s="15">
         <f>E71</f>
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E148" s="19">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E148" s="15">
         <f>F71</f>
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149" s="19">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E149" s="15">
         <f>G71</f>
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150" s="19">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E150" s="15">
         <f>H71</f>
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151" s="19">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E151" s="15">
         <f>I71</f>
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E152" s="19">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E152" s="15">
         <f>E72</f>
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E153" s="19">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E153" s="15">
         <f>F72</f>
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E154" s="19">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E154" s="15">
         <f>G72</f>
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E155" s="19">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E155" s="15">
         <f>H72</f>
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E156" s="19">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E156" s="15">
         <f>I72</f>
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E157" s="19">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E157" s="15">
         <f>E73</f>
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E158" s="19">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E158" s="15">
         <f>F73</f>
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E159" s="19">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E159" s="15">
         <f>G73</f>
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E160" s="19">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E160" s="15">
         <f>H73</f>
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E161" s="19">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E161" s="15">
         <f>I73</f>
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E162" s="19">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E162" s="15">
         <f>E74</f>
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E163" s="19">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E163" s="15">
         <f>F74</f>
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E164" s="19">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E164" s="15">
         <f>G74</f>
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E165" s="19">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E165" s="15">
         <f>H74</f>
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E166" s="19">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E166" s="15">
         <f>I74</f>
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E167" s="19">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E167" s="15">
         <f>E75</f>
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E168" s="19">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E168" s="15">
         <f>F75</f>
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E169" s="19">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E169" s="15">
         <f>G75</f>
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E170" s="19">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E170" s="15">
         <f>H75</f>
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E171" s="19">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E171" s="15">
         <f>I75</f>
         <v>33</v>
       </c>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E172" s="19">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E172" s="15">
         <f>E76</f>
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E173" s="19">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E173" s="15">
         <f>F76</f>
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E174" s="19">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E174" s="15">
         <f>G76</f>
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E175" s="19">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E175" s="15">
         <f>H76</f>
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E176" s="19">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E176" s="15">
         <f>I76</f>
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E177" s="19">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E177" s="15">
         <f>E77</f>
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E178" s="19">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E178" s="15">
         <f>F77</f>
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E179" s="19">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E179" s="15">
         <f>G77</f>
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E180" s="19">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E180" s="15">
         <f>H77</f>
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E181" s="19">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E181" s="15">
         <f>I77</f>
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E182" s="19">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E182" s="15">
         <f>E78</f>
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E183" s="19">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E183" s="15">
         <f>F78</f>
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E184" s="19">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E184" s="15">
         <f>G78</f>
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E185" s="19">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E185" s="15">
         <f>H78</f>
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E186" s="19">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E186" s="15">
         <f>I78</f>
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E187" s="19">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E187" s="15">
         <f>E79</f>
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E188" s="19">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E188" s="15">
         <f>F79</f>
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E189" s="19">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E189" s="15">
         <f>G79</f>
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E190" s="19">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E190" s="15">
         <f>H79</f>
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E191" s="19">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E191" s="15">
         <f>I79</f>
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E192" s="19">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E192" s="15">
         <f>E80</f>
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E193" s="19">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E193" s="15">
         <f>F80</f>
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E194" s="19">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E194" s="15">
         <f>G80</f>
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E195" s="19">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E195" s="15">
         <f>H80</f>
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E196" s="19">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E196" s="15">
         <f>I80</f>
         <v>38</v>
       </c>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E197" s="19">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E197" s="15">
         <f>E81</f>
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E198" s="19">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E198" s="15">
         <f>F81</f>
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E199" s="19">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E199" s="15">
         <f>G81</f>
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E200" s="19">
+    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E200" s="15">
         <f>H81</f>
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E201" s="19">
+    <row r="201" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E201" s="15">
         <f>I81</f>
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E202" s="19">
+    <row r="202" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E202" s="15">
         <f>E82</f>
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E203" s="19">
+    <row r="203" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E203" s="15">
         <f>F82</f>
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E204" s="19">
+    <row r="204" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E204" s="15">
         <f>G82</f>
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E205" s="19">
+    <row r="205" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E205" s="15">
         <f>H82</f>
         <v>37</v>
       </c>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E206" s="19">
+    <row r="206" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E206" s="15">
         <f>I82</f>
         <v>40</v>
       </c>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E207" s="19">
+    <row r="207" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E207" s="15">
         <f>E83</f>
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E208" s="19">
+    <row r="208" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E208" s="15">
         <f>F83</f>
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E209" s="19">
+    <row r="209" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E209" s="15">
         <f>G83</f>
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E210" s="19">
+    <row r="210" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E210" s="15">
         <f>H83</f>
         <v>38</v>
       </c>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E211" s="19">
+    <row r="211" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E211" s="15">
         <f>I83</f>
         <v>41</v>
       </c>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E212" s="19">
+    <row r="212" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E212" s="15">
         <f>E84</f>
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E213" s="19">
+    <row r="213" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E213" s="15">
         <f>F84</f>
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E214" s="19">
+    <row r="214" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E214" s="15">
         <f>G84</f>
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E215" s="19">
+    <row r="215" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E215" s="15">
         <f>H84</f>
         <v>39</v>
       </c>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E216" s="19">
+    <row r="216" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E216" s="15">
         <f>I84</f>
         <v>42</v>
       </c>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E217" s="19">
+    <row r="217" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E217" s="15">
         <f>E85</f>
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E218" s="19">
+    <row r="218" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E218" s="15">
         <f>F85</f>
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E219" s="19">
+    <row r="219" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E219" s="15">
         <f>G85</f>
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E220" s="19">
+    <row r="220" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E220" s="15">
         <f>H85</f>
         <v>40</v>
       </c>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E221" s="19">
+    <row r="221" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E221" s="15">
         <f>I85</f>
         <v>43</v>
       </c>
@@ -6035,26 +5568,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB2190C-C259-45F4-9152-A167A526DE23}">
   <dimension ref="B36:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -6071,10 +5604,10 @@
         <v>4</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>1</v>
       </c>
@@ -6090,12 +5623,12 @@
       <c r="F39" s="2">
         <v>20</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="16">
         <f>IF(SUMIFS(D39:D64,B39:B64,5,C39:C64,16)=0,"no se dectecto ventas",SUMIFS(D39:D64,B39:B64,5,C39:C64,16))</f>
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>1</v>
       </c>
@@ -6112,7 +5645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>1</v>
       </c>
@@ -6133,7 +5666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>3</v>
       </c>
@@ -6150,7 +5683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>3</v>
       </c>
@@ -6167,7 +5700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>3</v>
       </c>
@@ -6184,7 +5717,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>3</v>
       </c>
@@ -6201,7 +5734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>3</v>
       </c>
@@ -6218,7 +5751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>3</v>
       </c>
@@ -6235,7 +5768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="6">
         <v>5</v>
       </c>
@@ -6252,7 +5785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="6">
         <v>5</v>
       </c>
@@ -6269,7 +5802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="6">
         <v>5</v>
       </c>
@@ -6286,7 +5819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="6">
         <v>5</v>
       </c>
@@ -6303,7 +5836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="6">
         <v>5</v>
       </c>
@@ -6320,7 +5853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="7">
         <v>6</v>
       </c>
@@ -6337,7 +5870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="7">
         <v>6</v>
       </c>
@@ -6354,7 +5887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
         <v>6</v>
       </c>
@@ -6371,7 +5904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="7">
         <v>6</v>
       </c>
@@ -6388,7 +5921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="8">
         <v>7</v>
       </c>
@@ -6405,7 +5938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="8">
         <v>7</v>
       </c>
@@ -6422,7 +5955,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="8">
         <v>7</v>
       </c>
@@ -6439,7 +5972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>8</v>
       </c>
@@ -6456,7 +5989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>9</v>
       </c>
@@ -6473,7 +6006,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="10">
         <v>10</v>
       </c>
@@ -6490,7 +6023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="11">
         <v>2</v>
       </c>
@@ -6507,7 +6040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="11">
         <v>2</v>
       </c>
@@ -6524,782 +6057,782 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="19">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="15">
         <f>B39</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="19">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="15">
         <f>C39</f>
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="19">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="15">
         <f>D39</f>
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="19">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="15">
         <f>E39</f>
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="19">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="15">
         <f>F39</f>
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="19">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="15">
         <f>B40</f>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="19">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="15">
         <f>C40</f>
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="19">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="15">
         <f>D40</f>
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="19">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="15">
         <f>E40</f>
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="19">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="15">
         <f>F40</f>
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="19">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="15">
         <f>B41</f>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="19">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="15">
         <f>C41</f>
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="19">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="15">
         <f>D41</f>
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="19">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="15">
         <f>E41</f>
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="19">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="15">
         <f>F41</f>
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="19">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="15">
         <f>B42</f>
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="19">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="15">
         <f>C42</f>
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="19">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="15">
         <f>D42</f>
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="19">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="15">
         <f>E42</f>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="19">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="15">
         <f>F42</f>
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="19">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="15">
         <f>B43</f>
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="19">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="15">
         <f>C43</f>
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="19">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="15">
         <f>D43</f>
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="19">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="15">
         <f>E43</f>
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="19">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="15">
         <f>F43</f>
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="19">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="15">
         <f>B44</f>
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="19">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="15">
         <f>C44</f>
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="19">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="15">
         <f>D44</f>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="19">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="15">
         <f>E44</f>
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="19">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="15">
         <f>F44</f>
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="19">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="15">
         <f>B45</f>
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="19">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="15">
         <f>C45</f>
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="19">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="15">
         <f>D45</f>
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="19">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="15">
         <f>E45</f>
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="19">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="15">
         <f>F45</f>
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="19">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="15">
         <f>B46</f>
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="19">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="15">
         <f>C46</f>
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="19">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="15">
         <f>D46</f>
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="19">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="15">
         <f>E46</f>
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="19">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="15">
         <f>F46</f>
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="19">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="15">
         <f>B47</f>
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="19">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="15">
         <f>C47</f>
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="19">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="15">
         <f>D47</f>
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="19">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="15">
         <f>E47</f>
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="19">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="15">
         <f>F47</f>
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="19">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="15">
         <f>B48</f>
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="19">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="15">
         <f>C48</f>
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="19">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="15">
         <f>D48</f>
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="19">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="15">
         <f>E48</f>
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="19">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="15">
         <f>F48</f>
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="19">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="15">
         <f>B49</f>
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="19">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="15">
         <f>C49</f>
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="19">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="15">
         <f>D49</f>
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="19">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="15">
         <f>E49</f>
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="19">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="15">
         <f>F49</f>
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="19">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="15">
         <f>B50</f>
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="19">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="15">
         <f>C50</f>
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="19">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="15">
         <f>D50</f>
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="19">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="15">
         <f>E50</f>
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="19">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="15">
         <f>F50</f>
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="19">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="15">
         <f>B51</f>
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="19">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="15">
         <f>C51</f>
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="19">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="15">
         <f>D51</f>
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="19">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="15">
         <f>E51</f>
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="19">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="15">
         <f>F51</f>
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="19">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="15">
         <f>B52</f>
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="19">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="15">
         <f>C52</f>
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="19">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="15">
         <f>D52</f>
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="19">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="15">
         <f>E52</f>
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="19">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="15">
         <f>F52</f>
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="19">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="15">
         <f>B53</f>
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="19">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="15">
         <f>C53</f>
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="19">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="15">
         <f>D53</f>
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="19">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="15">
         <f>E53</f>
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="19">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="15">
         <f>F53</f>
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="19">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="15">
         <f>B54</f>
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="19">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="15">
         <f>C54</f>
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="19">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="15">
         <f>D54</f>
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="19">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="15">
         <f>E54</f>
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="19">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="15">
         <f>F54</f>
         <v>33</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="19">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="15">
         <f>B55</f>
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="19">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="15">
         <f>C55</f>
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="19">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="15">
         <f>D55</f>
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="19">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="15">
         <f>E55</f>
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="19">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="15">
         <f>F55</f>
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="19">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="15">
         <f>B56</f>
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="19">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="15">
         <f>C56</f>
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="19">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="15">
         <f>D56</f>
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="19">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="15">
         <f>E56</f>
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="19">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="15">
         <f>F56</f>
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="19">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="15">
         <f>B57</f>
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="19">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="15">
         <f>C57</f>
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="19">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="15">
         <f>D57</f>
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="19">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="15">
         <f>E57</f>
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="19">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="15">
         <f>F57</f>
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="19">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="15">
         <f>B58</f>
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="19">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="15">
         <f>C58</f>
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="19">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="15">
         <f>D58</f>
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="19">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="15">
         <f>E58</f>
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="19">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="15">
         <f>F58</f>
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="19">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="15">
         <f>B59</f>
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="19">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="15">
         <f>C59</f>
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="19">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="15">
         <f>D59</f>
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="19">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="15">
         <f>E59</f>
         <v>35</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="19">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="15">
         <f>F59</f>
         <v>38</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="19">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="15">
         <f>B60</f>
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="19">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="15">
         <f>C60</f>
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="19">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="15">
         <f>D60</f>
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="19">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="15">
         <f>E60</f>
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="19">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="15">
         <f>F60</f>
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="19">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="15">
         <f>B61</f>
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="19">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="15">
         <f>C61</f>
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="19">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="15">
         <f>D61</f>
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="19">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="15">
         <f>E61</f>
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="19">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="15">
         <f>F61</f>
         <v>40</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="19">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="15">
         <f>B62</f>
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="19">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="15">
         <f>C62</f>
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="19">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="15">
         <f>D62</f>
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="19">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="15">
         <f>E62</f>
         <v>38</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="19">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="15">
         <f>F62</f>
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="19">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="15">
         <f>B63</f>
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="19">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="15">
         <f>C63</f>
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="19">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="15">
         <f>D63</f>
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="19">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="15">
         <f>E63</f>
         <v>39</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="19">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="15">
         <f>F63</f>
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="19">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="15">
         <f>B64</f>
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="19">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="15">
         <f>C64</f>
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="19">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="15">
         <f>D64</f>
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="19">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="15">
         <f>E64</f>
         <v>40</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="19">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="15">
         <f>F64</f>
         <v>43</v>
       </c>
